--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gnas-Lhcgr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gnas-Lhcgr.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>84.76851766666665</v>
+        <v>95.63567833333333</v>
       </c>
       <c r="H2">
-        <v>254.305553</v>
+        <v>286.907035</v>
       </c>
       <c r="I2">
-        <v>0.2571740874301185</v>
+        <v>0.2808828217467972</v>
       </c>
       <c r="J2">
-        <v>0.2571740874301185</v>
+        <v>0.2808828217467972</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>0.01713876626480986</v>
       </c>
       <c r="Q2">
-        <v>5.63012715021211</v>
+        <v>6.351898604983889</v>
       </c>
       <c r="R2">
-        <v>50.67114435190899</v>
+        <v>57.16708744485501</v>
       </c>
       <c r="S2">
-        <v>0.004407646573830577</v>
+        <v>0.00481398502971861</v>
       </c>
       <c r="T2">
-        <v>0.004407646573830578</v>
+        <v>0.004813985029718611</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>84.76851766666665</v>
+        <v>95.63567833333333</v>
       </c>
       <c r="H3">
-        <v>254.305553</v>
+        <v>286.907035</v>
       </c>
       <c r="I3">
-        <v>0.2571740874301185</v>
+        <v>0.2808828217467972</v>
       </c>
       <c r="J3">
-        <v>0.2571740874301185</v>
+        <v>0.2808828217467972</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,16 +626,16 @@
         <v>0.9828612337351901</v>
       </c>
       <c r="Q3">
-        <v>322.8723486535543</v>
+        <v>364.2639617691617</v>
       </c>
       <c r="R3">
-        <v>2905.851137881989</v>
+        <v>3278.375655922455</v>
       </c>
       <c r="S3">
-        <v>0.2527664408562879</v>
+        <v>0.2760688367170785</v>
       </c>
       <c r="T3">
-        <v>0.252766440856288</v>
+        <v>0.2760688367170786</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>401.04908</v>
       </c>
       <c r="I4">
-        <v>0.4055728628296552</v>
+        <v>0.392628215788982</v>
       </c>
       <c r="J4">
-        <v>0.4055728628296552</v>
+        <v>0.392628215788982</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -691,13 +691,13 @@
         <v>8.878914704137779</v>
       </c>
       <c r="R4">
-        <v>79.91023233723999</v>
+        <v>79.91023233724</v>
       </c>
       <c r="S4">
-        <v>0.006951018499387253</v>
+        <v>0.006729163219376693</v>
       </c>
       <c r="T4">
-        <v>0.006951018499387252</v>
+        <v>0.006729163219376693</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>401.04908</v>
       </c>
       <c r="I5">
-        <v>0.4055728628296552</v>
+        <v>0.392628215788982</v>
       </c>
       <c r="J5">
-        <v>0.4055728628296552</v>
+        <v>0.392628215788982</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -756,10 +756,10 @@
         <v>4582.63263116604</v>
       </c>
       <c r="S5">
-        <v>0.3986218443302679</v>
+        <v>0.3858990525696053</v>
       </c>
       <c r="T5">
-        <v>0.3986218443302679</v>
+        <v>0.3858990525696053</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>333.49131</v>
       </c>
       <c r="I6">
-        <v>0.3372530497402263</v>
+        <v>0.3264889624642208</v>
       </c>
       <c r="J6">
-        <v>0.3372530497402264</v>
+        <v>0.3264889624642208</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -815,13 +815,13 @@
         <v>7.38323822127</v>
       </c>
       <c r="R6">
-        <v>66.44914399142999</v>
+        <v>66.44914399143001</v>
       </c>
       <c r="S6">
-        <v>0.005780101191592034</v>
+        <v>0.005595618015714561</v>
       </c>
       <c r="T6">
-        <v>0.005780101191592033</v>
+        <v>0.005595618015714562</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>333.49131</v>
       </c>
       <c r="I7">
-        <v>0.3372530497402263</v>
+        <v>0.3264889624642208</v>
       </c>
       <c r="J7">
-        <v>0.3372530497402264</v>
+        <v>0.3264889624642208</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -880,10 +880,10 @@
         <v>3810.67613823303</v>
       </c>
       <c r="S7">
-        <v>0.3314729485486342</v>
+        <v>0.3208933444485062</v>
       </c>
       <c r="T7">
-        <v>0.3314729485486343</v>
+        <v>0.3208933444485063</v>
       </c>
     </row>
   </sheetData>
